--- a/Ethanol/Ethanol_AVE_MOL_FRAC.xlsx
+++ b/Ethanol/Ethanol_AVE_MOL_FRAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{43A49654-150C-4DB3-BF05-15A2553C9149}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{3161ECDC-DAA0-4743-A3C4-CD0E652F9B7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="11055" xr2:uid="{B05076F2-074E-456D-866F-0E1DFD23D4EF}"/>
+    <workbookView xWindow="25200" yWindow="-11550" windowWidth="16200" windowHeight="10980" xr2:uid="{B05076F2-074E-456D-866F-0E1DFD23D4EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,18 +534,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
@@ -614,19 +610,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4.5100000000000001E-2</v>
+        <v>5.0975929752124817E-2</v>
       </c>
       <c r="C2">
-        <v>3.0099999999999998E-2</v>
+        <v>3.2894614408185391E-2</v>
       </c>
       <c r="D2">
-        <v>0.1613</v>
+        <v>0.16836536701845861</v>
       </c>
       <c r="E2">
-        <v>4.7999999999999996E-3</v>
+        <v>5.4161568256995253E-3</v>
       </c>
       <c r="F2">
-        <v>1.7500000000000002E-2</v>
+        <v>1.9995854636702816E-2</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -635,34 +631,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.43569999999999998</v>
+        <v>0.47997688043695741</v>
       </c>
       <c r="J2">
-        <v>0.21160000000000001</v>
+        <v>0.14698142924619895</v>
       </c>
       <c r="K2">
-        <v>9.9000000000000008E-3</v>
+        <v>1.1128127603664975E-2</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.7E-2</v>
+        <v>5.3669451241893054E-2</v>
       </c>
       <c r="N2">
-        <v>2.6200000000000001E-2</v>
+        <v>1.8786518943293605E-2</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>2.9999999999999997E-4</v>
+        <v>2.2985713744390121E-4</v>
       </c>
       <c r="Q2">
-        <v>6.9999999999999999E-4</v>
+        <v>4.6181892544300859E-4</v>
       </c>
       <c r="R2">
-        <v>9.7999999999999997E-3</v>
+        <v>7.1767355593370307E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -670,19 +666,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5.0299999999999997E-2</v>
+        <v>5.4221547116626391E-2</v>
       </c>
       <c r="C3">
-        <v>3.5900000000000001E-2</v>
+        <v>3.7792591831608539E-2</v>
       </c>
       <c r="D3">
-        <v>0.16439999999999999</v>
+        <v>0.17948627359068156</v>
       </c>
       <c r="E3">
-        <v>5.5999999999999999E-3</v>
+        <v>6.0500332791019419E-3</v>
       </c>
       <c r="F3">
-        <v>2.12E-2</v>
+        <v>2.2728370721203074E-2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -691,34 +687,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.51800000000000002</v>
+        <v>0.54033888385867945</v>
       </c>
       <c r="J3">
-        <v>0.10580000000000001</v>
+        <v>5.6514356592965199E-2</v>
       </c>
       <c r="K3">
-        <v>8.5000000000000006E-3</v>
+        <v>1.5514099177698366E-2</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5.3600000000000002E-2</v>
+        <v>5.7783957566546348E-2</v>
       </c>
       <c r="N3">
-        <v>2.53E-2</v>
+        <v>1.7307771465087711E-2</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>4.0000000000000002E-4</v>
+        <v>2.4725149765762418E-4</v>
       </c>
       <c r="Q3">
-        <v>5.9999999999999995E-4</v>
+        <v>3.8506705611319857E-4</v>
       </c>
       <c r="R3">
-        <v>1.04E-2</v>
+        <v>7.1989983618921801E-3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -726,19 +722,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5.4600000000000003E-2</v>
+        <v>5.7997323405695682E-2</v>
       </c>
       <c r="C4">
-        <v>3.2399999999999998E-2</v>
+        <v>3.3797078629427865E-2</v>
       </c>
       <c r="D4">
-        <v>0.1711</v>
+        <v>0.16781254443338986</v>
       </c>
       <c r="E4">
-        <v>6.1999999999999998E-3</v>
+        <v>6.5530329628752642E-3</v>
       </c>
       <c r="F4">
-        <v>2.5100000000000001E-2</v>
+        <v>2.6454497454176606E-2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -747,34 +743,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.56850000000000001</v>
+        <v>0.58290383808986768</v>
       </c>
       <c r="J4">
-        <v>3.9199999999999999E-2</v>
+        <v>2.5371649289658585E-2</v>
       </c>
       <c r="K4">
-        <v>1.44E-2</v>
+        <v>1.5151198761170668E-2</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.4100000000000002E-2</v>
+        <v>5.7012489818122604E-2</v>
       </c>
       <c r="N4">
-        <v>2.3800000000000002E-2</v>
+        <v>1.5985380046762032E-2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>4.0000000000000002E-4</v>
+        <v>2.3016058927327463E-4</v>
       </c>
       <c r="Q4">
-        <v>5.0000000000000001E-4</v>
+        <v>3.351338336359471E-4</v>
       </c>
       <c r="R4">
-        <v>9.5999999999999992E-3</v>
+        <v>6.5141913376529931E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -782,19 +778,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.3499999999999999E-2</v>
+        <v>5.6191491988095428E-2</v>
       </c>
       <c r="C5">
-        <v>2.3900000000000001E-2</v>
+        <v>2.3217706483662559E-2</v>
       </c>
       <c r="D5">
-        <v>0.16869999999999999</v>
+        <v>0.15595377452024017</v>
       </c>
       <c r="E5">
-        <v>6.7999999999999996E-3</v>
+        <v>7.2280441159209945E-3</v>
       </c>
       <c r="F5">
-        <v>4.0800000000000003E-2</v>
+        <v>4.3109687218418409E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -803,34 +799,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.62390000000000001</v>
+        <v>0.6355516999215518</v>
       </c>
       <c r="J5">
-        <v>9.5999999999999992E-3</v>
+        <v>6.4988602843510474E-3</v>
       </c>
       <c r="K5">
-        <v>1.01E-2</v>
+        <v>1.0421645060556088E-2</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.1599999999999998E-2</v>
+        <v>4.350373247504128E-2</v>
       </c>
       <c r="N5">
-        <v>1.41E-2</v>
+        <v>9.7740000442874571E-3</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>2.9999999999999997E-4</v>
+        <v>1.8529850574693533E-4</v>
       </c>
       <c r="Q5">
-        <v>2.9999999999999997E-4</v>
+        <v>2.1372062982712869E-4</v>
       </c>
       <c r="R5">
-        <v>6.4000000000000003E-3</v>
+        <v>4.2618723039325734E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -838,19 +834,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>4.8000000000000001E-2</v>
+        <v>4.9475471652917963E-2</v>
       </c>
       <c r="C6">
-        <v>1.9E-2</v>
+        <v>1.9418482368356107E-2</v>
       </c>
       <c r="D6">
-        <v>0.1298</v>
+        <v>0.1239522210178203</v>
       </c>
       <c r="E6">
-        <v>7.4000000000000003E-3</v>
+        <v>7.6581918795310781E-3</v>
       </c>
       <c r="F6">
-        <v>5.9400000000000001E-2</v>
+        <v>6.1374317564195119E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -859,34 +855,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.67510000000000003</v>
+        <v>0.67807117990069898</v>
       </c>
       <c r="J6">
-        <v>5.4000000000000003E-3</v>
+        <v>3.4247664756096884E-3</v>
       </c>
       <c r="K6">
-        <v>7.6E-3</v>
+        <v>7.836996942937496E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.4099999999999998E-2</v>
+        <v>3.5264053336778914E-2</v>
       </c>
       <c r="N6">
-        <v>9.1999999999999998E-3</v>
+        <v>6.1460220381650719E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1E-4</v>
+        <v>8.5398442940802849E-5</v>
       </c>
       <c r="Q6">
-        <v>2.9999999999999997E-4</v>
+        <v>1.6109953882472187E-4</v>
       </c>
       <c r="R6">
-        <v>4.4999999999999997E-3</v>
+        <v>2.9780072530081634E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -894,19 +890,19 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>3.85E-2</v>
+        <v>4.2846117388756745E-2</v>
       </c>
       <c r="C7">
-        <v>6.1000000000000004E-3</v>
+        <v>8.048043593601905E-3</v>
       </c>
       <c r="D7">
-        <v>6.6500000000000004E-2</v>
+        <v>8.6275401159931195E-2</v>
       </c>
       <c r="E7">
-        <v>8.2000000000000007E-3</v>
+        <v>8.2133802543575621E-3</v>
       </c>
       <c r="F7">
-        <v>0.10780000000000001</v>
+        <v>9.722745784382697E-2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -915,22 +911,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.75029999999999997</v>
+        <v>0.728032039764831</v>
       </c>
       <c r="J7">
-        <v>8.0000000000000004E-4</v>
+        <v>6.8403962433076005E-4</v>
       </c>
       <c r="K7">
-        <v>2.7000000000000001E-3</v>
+        <v>3.3480435359149398E-3</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.4E-2</v>
+        <v>1.721106512990201E-2</v>
       </c>
       <c r="N7">
-        <v>3.5000000000000001E-3</v>
+        <v>2.7306867369380219E-3</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -939,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1E-4</v>
+        <v>7.9356911468174106E-5</v>
       </c>
       <c r="R7">
-        <v>1.5E-3</v>
+        <v>1.1624914740394965E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -950,19 +946,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>3.5099999999999999E-2</v>
+        <v>3.4860829869311966E-2</v>
       </c>
       <c r="C8">
-        <v>2.3999999999999998E-3</v>
+        <v>2.4038317817637353E-3</v>
       </c>
       <c r="D8">
-        <v>4.48E-2</v>
+        <v>6.1624935810477427E-2</v>
       </c>
       <c r="E8">
-        <v>8.3999999999999995E-3</v>
+        <v>8.4699707007492506E-3</v>
       </c>
       <c r="F8">
-        <v>0.127</v>
+        <v>0.12696471988061858</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -971,22 +967,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.77349999999999997</v>
+        <v>0.75351305989515094</v>
       </c>
       <c r="J8">
-        <v>1E-4</v>
+        <v>8.1207887185947791E-5</v>
       </c>
       <c r="K8">
-        <v>8.9999999999999998E-4</v>
+        <v>9.1278296012955833E-4</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>6.0000000000000001E-3</v>
+        <v>6.0808910970214331E-3</v>
       </c>
       <c r="N8">
-        <v>1.4E-3</v>
+        <v>8.6886923762618726E-4</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -995,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.332742460308236E-5</v>
       </c>
       <c r="R8">
-        <v>4.0000000000000002E-4</v>
+        <v>2.6681163584672493E-4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1006,19 +1002,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>2.1399999999999999E-2</v>
+        <v>2.1730777368541822E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.1099999999999999E-2</v>
+        <v>2.9775700234771479E-2</v>
       </c>
       <c r="E9">
-        <v>8.5000000000000006E-3</v>
+        <v>8.6100342900754315E-3</v>
       </c>
       <c r="F9">
-        <v>0.1585</v>
+        <v>0.16151466931957065</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1027,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.77959999999999996</v>
+        <v>0.773840729790777</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.6225724516888431E-6</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3.8937102597632847E-5</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>5.9999999999999995E-4</v>
+        <v>3.4930317882126902E-4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1054,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>2.0000000000000001E-4</v>
+        <v>1.0513634682183687E-4</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1062,19 +1058,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>1.29E-2</v>
+        <v>1.315828095408597E-2</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.5399999999999999E-2</v>
+        <v>1.6377860457377297E-2</v>
       </c>
       <c r="E10">
-        <v>8.5000000000000006E-3</v>
+        <v>8.7684504772820668E-3</v>
       </c>
       <c r="F10">
-        <v>0.17549999999999999</v>
+        <v>0.18275741027607564</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1083,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.77780000000000005</v>
+        <v>0.7745488754110702</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.8362471229638906E-5</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.0214073193780772E-5</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1206,19 +1202,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.6846788474122665E-3</v>
+        <v>2.6266193630667583E-3</v>
       </c>
       <c r="C2">
-        <v>3.4729241857864436E-3</v>
+        <v>2.1672178900110375E-3</v>
       </c>
       <c r="D2">
-        <v>3.4212755889661453E-2</v>
+        <v>3.3824572086532077E-2</v>
       </c>
       <c r="E2">
-        <v>5.505173625935815E-4</v>
+        <v>6.6923849323026095E-4</v>
       </c>
       <c r="F2">
-        <v>6.9212388095326307E-3</v>
+        <v>7.4280214850025745E-3</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1227,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.6668702826604402E-2</v>
+        <v>4.6322573535070126E-2</v>
       </c>
       <c r="J2">
-        <v>0.10344076135527602</v>
+        <v>6.987942925734722E-2</v>
       </c>
       <c r="K2">
-        <v>7.4263773485190555E-4</v>
+        <v>7.7332619957453134E-4</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.0956469873137846E-3</v>
+        <v>3.7869151164321648E-3</v>
       </c>
       <c r="N2">
-        <v>4.606114023161096E-3</v>
+        <v>3.4057587376716621E-3</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.9912449020384856E-4</v>
+        <v>1.0599816278823837E-4</v>
       </c>
       <c r="Q2">
-        <v>4.7985961758203522E-5</v>
+        <v>3.5872330925911651E-5</v>
       </c>
       <c r="R2">
-        <v>1.3060118206477777E-3</v>
+        <v>1.0190164167024254E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1262,19 +1258,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4.2588227477608808E-3</v>
+        <v>5.7055855478190583E-3</v>
       </c>
       <c r="C3">
-        <v>7.2262560808488974E-3</v>
+        <v>7.5288976184398884E-3</v>
       </c>
       <c r="D3">
-        <v>3.4801112020564386E-2</v>
+        <v>5.1343038014147899E-2</v>
       </c>
       <c r="E3">
-        <v>5.0624202341584745E-4</v>
+        <v>6.7512478297217964E-4</v>
       </c>
       <c r="F3">
-        <v>1.7002593464143768E-2</v>
+        <v>1.8150556176502235E-2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1283,34 +1279,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.7243508515805728E-2</v>
+        <v>5.0150779184922882E-2</v>
       </c>
       <c r="J3">
-        <v>2.96612977475374E-2</v>
+        <v>2.2962732202062401E-2</v>
       </c>
       <c r="K3">
-        <v>6.5465230308432362E-3</v>
+        <v>4.4387627801717169E-3</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.1408043514878652E-2</v>
+        <v>1.2365153713955945E-2</v>
       </c>
       <c r="N3">
-        <v>6.7870271568654375E-3</v>
+        <v>4.6906711199488629E-3</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.8166717585110171E-4</v>
+        <v>5.4853820526955779E-5</v>
       </c>
       <c r="Q3">
-        <v>1.8484463584622057E-4</v>
+        <v>1.1890309927481706E-4</v>
       </c>
       <c r="R3">
-        <v>2.7947182775064547E-3</v>
+        <v>1.9789773874642458E-3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1318,19 +1314,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.3210858248492163E-3</v>
+        <v>3.6773902397962068E-3</v>
       </c>
       <c r="C4">
-        <v>1.7530011511888962E-3</v>
+        <v>2.5161065915431792E-3</v>
       </c>
       <c r="D4">
-        <v>4.149337568228452E-2</v>
+        <v>5.406749018361566E-2</v>
       </c>
       <c r="E4">
-        <v>2.9044880126428079E-4</v>
+        <v>5.9716560115085097E-4</v>
       </c>
       <c r="F4">
-        <v>1.1193929106761301E-3</v>
+        <v>1.7828360570605042E-3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1339,34 +1335,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.2880078179901332E-2</v>
+        <v>3.618940880327752E-2</v>
       </c>
       <c r="J4">
-        <v>9.0221836355588846E-3</v>
+        <v>5.0620291944718015E-3</v>
       </c>
       <c r="K4">
-        <v>1.3627109490360325E-3</v>
+        <v>1.6751729630561738E-3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.3245780289746889E-3</v>
+        <v>3.5583663309037036E-3</v>
       </c>
       <c r="N4">
-        <v>2.0343413531188309E-3</v>
+        <v>1.7080450018450519E-3</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.8417935681883113E-4</v>
+        <v>6.5902821011222854E-5</v>
       </c>
       <c r="Q4">
-        <v>3.8870326155301957E-5</v>
+        <v>3.012937664850317E-5</v>
       </c>
       <c r="R4">
-        <v>5.9031496309311891E-4</v>
+        <v>5.2814925313633145E-4</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1374,19 +1370,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.1496645553913118E-3</v>
+        <v>2.7112364473577876E-3</v>
       </c>
       <c r="C5">
-        <v>4.5028670689656941E-3</v>
+        <v>5.9245851097677292E-3</v>
       </c>
       <c r="D5">
-        <v>3.6044317173246895E-2</v>
+        <v>3.1057346856867254E-2</v>
       </c>
       <c r="E5">
-        <v>4.4531262387618385E-4</v>
+        <v>7.0450613975044118E-4</v>
       </c>
       <c r="F5">
-        <v>1.2784691122440088E-2</v>
+        <v>1.3839846225593923E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1395,34 +1391,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.6266335355835205E-2</v>
+        <v>4.6049782052465765E-2</v>
       </c>
       <c r="J5">
-        <v>2.4894636843884963E-3</v>
+        <v>1.4908636566009629E-3</v>
       </c>
       <c r="K5">
-        <v>1.6988356362757019E-3</v>
+        <v>1.8247107196026507E-3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7.4174393628298604E-3</v>
+        <v>7.4436747135353748E-3</v>
       </c>
       <c r="N5">
-        <v>1.3035197583809407E-3</v>
+        <v>7.0073542577894375E-4</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.2538765557624913E-4</v>
+        <v>5.1173530448865387E-5</v>
       </c>
       <c r="Q5">
-        <v>3.5747724482213867E-5</v>
+        <v>3.6355222491489642E-5</v>
       </c>
       <c r="R5">
-        <v>1.3369404579473305E-3</v>
+        <v>8.1320519115205307E-4</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1430,19 +1426,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>7.5072153001737281E-3</v>
+        <v>7.7476534833186049E-3</v>
       </c>
       <c r="C6">
-        <v>1.509378959123988E-2</v>
+        <v>1.5416524965127635E-2</v>
       </c>
       <c r="D6">
-        <v>2.4847477159085307E-2</v>
+        <v>2.8313838985886217E-2</v>
       </c>
       <c r="E6">
-        <v>5.0045610904516117E-4</v>
+        <v>7.0219285578005438E-4</v>
       </c>
       <c r="F6">
-        <v>4.0095986846051736E-2</v>
+        <v>4.1376483343277086E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1451,34 +1447,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.542925552181401E-2</v>
+        <v>4.4760494554843669E-2</v>
       </c>
       <c r="J6">
-        <v>6.8700280362184443E-3</v>
+        <v>4.3329053048977223E-3</v>
       </c>
       <c r="K6">
-        <v>5.8386391333743043E-3</v>
+        <v>6.0026829054579444E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.2868186943333441E-2</v>
+        <v>2.367082852072009E-2</v>
       </c>
       <c r="N6">
-        <v>5.0690817075012291E-3</v>
+        <v>3.4384257609070164E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.0293831088355898E-4</v>
+        <v>5.2197355625829127E-5</v>
       </c>
       <c r="Q6">
-        <v>5.0322414017348396E-5</v>
+        <v>3.0562589856713837E-5</v>
       </c>
       <c r="R6">
-        <v>3.642584405967232E-3</v>
+        <v>2.4205394934442175E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1486,19 +1482,19 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>8.3592292918491188E-3</v>
+        <v>1.1799693942510226E-3</v>
       </c>
       <c r="C7">
-        <v>3.7067810191477165E-3</v>
+        <v>3.986895141974132E-4</v>
       </c>
       <c r="D7">
-        <v>6.2518572955795187E-2</v>
+        <v>1.7199794792909086E-2</v>
       </c>
       <c r="E7">
-        <v>3.7518708245883563E-4</v>
+        <v>5.9216814337112434E-4</v>
       </c>
       <c r="F7">
-        <v>2.1906763639051259E-2</v>
+        <v>2.4477695663818839E-3</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1507,22 +1503,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.9240406206065554E-2</v>
+        <v>1.8231784058131924E-2</v>
       </c>
       <c r="J7">
-        <v>5.6763872070407636E-4</v>
+        <v>6.1665550613785415E-5</v>
       </c>
       <c r="K7">
-        <v>1.376865735108201E-3</v>
+        <v>1.8193794934851098E-4</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6.2182446565363899E-3</v>
+        <v>4.6715487069406433E-4</v>
       </c>
       <c r="N7">
-        <v>1.4548212980035927E-3</v>
+        <v>5.5323291367082532E-5</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1531,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.5861873465810448E-5</v>
+        <v>3.646859755837121E-6</v>
       </c>
       <c r="R7">
-        <v>7.1045471834245617E-4</v>
+        <v>6.5191065175053078E-5</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1542,19 +1538,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>1.0662036474888646E-3</v>
+        <v>1.5914950694957896E-3</v>
       </c>
       <c r="C8">
-        <v>6.2884531284571499E-4</v>
+        <v>5.99279707907785E-4</v>
       </c>
       <c r="D8">
-        <v>1.0510760424029998E-2</v>
+        <v>1.9829253276285805E-2</v>
       </c>
       <c r="E8">
-        <v>3.0519310304811414E-4</v>
+        <v>6.9949377489719234E-4</v>
       </c>
       <c r="F8">
-        <v>7.2369908616331281E-3</v>
+        <v>9.9227846194020943E-3</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1563,22 +1559,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.0562427286664062E-2</v>
+        <v>3.7603404511584893E-2</v>
       </c>
       <c r="J8">
-        <v>1.0228785343871113E-4</v>
+        <v>6.095641957567591E-5</v>
       </c>
       <c r="K8">
-        <v>2.9516102879097183E-4</v>
+        <v>2.8607045751298906E-4</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.5927295098981571E-3</v>
+        <v>1.5419912670630008E-3</v>
       </c>
       <c r="N8">
-        <v>4.6058159500625591E-4</v>
+        <v>2.8454784765668693E-4</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1587,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.8419379870391412E-5</v>
+        <v>2.6671960725986185E-5</v>
       </c>
       <c r="R8">
-        <v>1.3841469511941527E-4</v>
+        <v>9.5214341229518979E-5</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1598,19 +1594,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>1.8686969802021603E-3</v>
+        <v>2.1981550126556038E-3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.942462478377028E-3</v>
+        <v>8.7908298441017902E-3</v>
       </c>
       <c r="E9">
-        <v>5.3920133664042951E-4</v>
+        <v>6.3598178520216737E-4</v>
       </c>
       <c r="F9">
-        <v>8.5146050213254602E-3</v>
+        <v>8.0419733877810547E-3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1619,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.0166138676188144E-2</v>
+        <v>2.5348595333920886E-2</v>
       </c>
       <c r="J9">
-        <v>6.7333323992943658E-6</v>
+        <v>4.0675972841788058E-6</v>
       </c>
       <c r="K9">
-        <v>9.0454217099302147E-6</v>
+        <v>8.6642898628642752E-6</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.2897401327808164E-5</v>
+        <v>6.9869783803481599E-4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1646,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>3.2117205735707655E-4</v>
+        <v>2.1042676296313123E-4</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1654,19 +1650,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>1.1905855309918014E-3</v>
+        <v>1.2304227947352738E-3</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.8205536579179337E-3</v>
+        <v>4.5582212887324983E-3</v>
       </c>
       <c r="E10">
-        <v>3.7200917368034189E-4</v>
+        <v>7.1263271454298548E-4</v>
       </c>
       <c r="F10">
-        <v>3.7231246423760846E-3</v>
+        <v>8.6858388377742003E-3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1675,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.0382193675727443E-2</v>
+        <v>2.4920378562480826E-2</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.6750900487032914E-5</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>4.0434331527054323E-5</v>
       </c>
       <c r="N10">
         <v>0</v>

--- a/Ethanol/Ethanol_AVE_MOL_FRAC.xlsx
+++ b/Ethanol/Ethanol_AVE_MOL_FRAC.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{3161ECDC-DAA0-4743-A3C4-CD0E652F9B7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{6E854DC0-2474-4D63-A057-817359D3B195}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="-11550" windowWidth="16200" windowHeight="10980" xr2:uid="{B05076F2-074E-456D-866F-0E1DFD23D4EF}"/>
+    <workbookView xWindow="25200" yWindow="-11580" windowWidth="16200" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Mole_Fractions" sheetId="4" r:id="rId4"/>
     <sheet name="Uncertainties" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="37">
   <si>
     <t>Position_cm</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>u_ave_x_Ethylene_2</t>
+  </si>
+  <si>
+    <t>ave_x_Toluene</t>
+  </si>
+  <si>
+    <t>u_ave_x_Toluene</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -171,12 +177,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BC1D6E-2AB3-4A84-9D85-16D428203B9B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -527,102 +589,110 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03297FBC-2A2E-47A1-BC3E-6E3321029659}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="14.85546875" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="16" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="14.85546875" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="16.42578125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="17.28515625" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="17.140625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="14.5703125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.0975929752124817E-2</v>
+        <v>0.051443281677038405</v>
       </c>
       <c r="C2">
-        <v>3.2894614408185391E-2</v>
+        <v>0.03308928501901582</v>
       </c>
       <c r="D2">
-        <v>0.16836536701845861</v>
+        <v>0.16938507910803516</v>
       </c>
       <c r="E2">
-        <v>5.4161568256995253E-3</v>
+        <v>0.0054482096883514209</v>
       </c>
       <c r="F2">
-        <v>1.9995854636702816E-2</v>
+        <v>0.02011419027632751</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -631,54 +701,57 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.47997688043695741</v>
+        <v>0.48123462998091188</v>
       </c>
       <c r="J2">
-        <v>0.14698142924619895</v>
+        <v>0.14785126660793302</v>
       </c>
       <c r="K2">
-        <v>1.1128127603664975E-2</v>
+        <v>0.0067251433080802734</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.3669451241893054E-2</v>
+        <v>0.05398706751568625</v>
       </c>
       <c r="N2">
-        <v>1.8786518943293605E-2</v>
+        <v>0.018897697723889304</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>2.2985713744390121E-4</v>
+        <v>0.00024304697015994648</v>
       </c>
       <c r="Q2">
-        <v>4.6181892544300859E-4</v>
+        <v>0.00042063631790558792</v>
       </c>
       <c r="R2">
-        <v>7.1767355593370307E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0072192075420685576</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5.4221547116626391E-2</v>
+        <v>0.054825105058925655</v>
       </c>
       <c r="C3">
-        <v>3.7792591831608539E-2</v>
+        <v>0.038090205686861153</v>
       </c>
       <c r="D3">
-        <v>0.17948627359068156</v>
+        <v>0.18093460687600585</v>
       </c>
       <c r="E3">
-        <v>6.0500332791019419E-3</v>
+        <v>0.0060976768420685501</v>
       </c>
       <c r="F3">
-        <v>2.2728370721203074E-2</v>
+        <v>0.022907354953459046</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -687,54 +760,57 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.54033888385867945</v>
+        <v>0.54280874038400706</v>
       </c>
       <c r="J3">
-        <v>5.6514356592965199E-2</v>
+        <v>0.056959402955958534</v>
       </c>
       <c r="K3">
-        <v>1.5514099177698366E-2</v>
+        <v>0.0093939894335606667</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5.7783957566546348E-2</v>
+        <v>0.058239001942961631</v>
       </c>
       <c r="N3">
-        <v>1.7307771465087711E-2</v>
+        <v>0.017444068880584016</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>2.4725149765762418E-4</v>
+        <v>0.00026194807190048976</v>
       </c>
       <c r="Q3">
-        <v>3.8506705611319857E-4</v>
+        <v>0.00035141108997326212</v>
       </c>
       <c r="R3">
-        <v>7.1989983618921801E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0072556899395957259</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5.7997323405695682E-2</v>
+        <v>0.058641646741186604</v>
       </c>
       <c r="C4">
-        <v>3.3797078629427865E-2</v>
+        <v>0.034062493898585386</v>
       </c>
       <c r="D4">
-        <v>0.16781254443338986</v>
+        <v>0.16916089221709169</v>
       </c>
       <c r="E4">
-        <v>6.5530329628752642E-3</v>
+        <v>0.0066044952512792562</v>
       </c>
       <c r="F4">
-        <v>2.6454497454176606E-2</v>
+        <v>0.026662249953710963</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -743,54 +819,57 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.58290383808986768</v>
+        <v>0.58555563482241579</v>
       </c>
       <c r="J4">
-        <v>2.5371649289658585E-2</v>
+        <v>0.025570897964344908</v>
       </c>
       <c r="K4">
-        <v>1.5151198761170668E-2</v>
+        <v>0.009174050750876666</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.7012489818122604E-2</v>
+        <v>0.057460220389641291</v>
       </c>
       <c r="N4">
-        <v>1.5985380046762032E-2</v>
+        <v>0.016110916457592567</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>2.3016058927327463E-4</v>
+        <v>0.00024383602782860196</v>
       </c>
       <c r="Q4">
-        <v>3.351338336359471E-4</v>
+        <v>0.00030583558220839457</v>
       </c>
       <c r="R4">
-        <v>6.5141913376529931E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0065653485949468621</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.6191491988095428E-2</v>
+        <v>0.05671749705253841</v>
       </c>
       <c r="C5">
-        <v>2.3217706483662559E-2</v>
+        <v>0.023359572129149988</v>
       </c>
       <c r="D5">
-        <v>0.15595377452024017</v>
+        <v>0.15693044819415053</v>
       </c>
       <c r="E5">
-        <v>7.2280441159209945E-3</v>
+        <v>0.0072722091649036992</v>
       </c>
       <c r="F5">
-        <v>4.3109687218418409E-2</v>
+        <v>0.043373097543133322</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -799,54 +878,57 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6355516999215518</v>
+        <v>0.63733889299609703</v>
       </c>
       <c r="J5">
-        <v>6.4988602843510474E-3</v>
+        <v>0.0065385698486794836</v>
       </c>
       <c r="K5">
-        <v>1.0421645060556088E-2</v>
+        <v>0.0062993930662953931</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.350373247504128E-2</v>
+        <v>0.043769550508921</v>
       </c>
       <c r="N5">
-        <v>9.7740000442874571E-3</v>
+        <v>0.0098337214825893957</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.8529850574693533E-4</v>
+        <v>0.00019596888365504557</v>
       </c>
       <c r="Q5">
-        <v>2.1372062982712869E-4</v>
+        <v>0.00019469933577149478</v>
       </c>
       <c r="R5">
-        <v>4.2618723039325734E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0042879133457472693</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>4.9475471652917963E-2</v>
+        <v>0.049894903728136833</v>
       </c>
       <c r="C6">
-        <v>1.9418482368356107E-2</v>
+        <v>0.019520035560211896</v>
       </c>
       <c r="D6">
-        <v>0.1239522210178203</v>
+        <v>0.12462217937137643</v>
       </c>
       <c r="E6">
-        <v>7.6581918795310781E-3</v>
+        <v>0.0076982420654548829</v>
       </c>
       <c r="F6">
-        <v>6.1374317564195119E-2</v>
+        <v>0.061695287953558109</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -855,54 +937,57 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.67807117990069898</v>
+        <v>0.67938284334339683</v>
       </c>
       <c r="J6">
-        <v>3.4247664756096884E-3</v>
+        <v>0.0034426770393891468</v>
       </c>
       <c r="K6">
-        <v>7.836996942937496E-3</v>
+        <v>0.0047329493828843616</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.5264053336778914E-2</v>
+        <v>0.035448474400494909</v>
       </c>
       <c r="N6">
-        <v>6.1460220381650719E-3</v>
+        <v>0.0061781640018547029</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>8.5398442940802849E-5</v>
+        <v>9.0237053555072483e-05</v>
       </c>
       <c r="Q6">
-        <v>1.6109953882472187E-4</v>
+        <v>0.00014663311954854946</v>
       </c>
       <c r="R6">
-        <v>2.9780072530081634E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0029935813919226197</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
-        <v>4.2846117388756745E-2</v>
+        <v>0.043139520771529286</v>
       </c>
       <c r="C7">
-        <v>8.048043593601905E-3</v>
+        <v>0.0080770586534308422</v>
       </c>
       <c r="D7">
-        <v>8.6275401159931195E-2</v>
+        <v>0.086601376372756944</v>
       </c>
       <c r="E7">
-        <v>8.2133802543575621E-3</v>
+        <v>0.0082429913911147706</v>
       </c>
       <c r="F7">
-        <v>9.722745784382697E-2</v>
+        <v>0.097577985332096689</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -911,22 +996,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.728032039764831</v>
+        <v>0.72826154625341355</v>
       </c>
       <c r="J7">
-        <v>6.8403962433076005E-4</v>
+        <v>0.00068650574549355883</v>
       </c>
       <c r="K7">
-        <v>3.3480435359149398E-3</v>
+        <v>0.0020186957849327391</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.721106512990201E-2</v>
+        <v>0.017273115003098617</v>
       </c>
       <c r="N7">
-        <v>2.7306867369380219E-3</v>
+        <v>0.002740531494626624</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -935,30 +1020,33 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7.9356911468174106E-5</v>
+        <v>7.2114090549575116e-05</v>
       </c>
       <c r="R7">
-        <v>1.1624914740394965E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0011666825248554621</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
       <c r="B8">
-        <v>3.4860829869311966E-2</v>
+        <v>0.035068962581080623</v>
       </c>
       <c r="C8">
-        <v>2.4038317817637353E-3</v>
+        <v>0.0024103956983244643</v>
       </c>
       <c r="D8">
-        <v>6.1624935810477427E-2</v>
+        <v>0.061803964411364182</v>
       </c>
       <c r="E8">
-        <v>8.4699707007492506E-3</v>
+        <v>0.0084930988503033687</v>
       </c>
       <c r="F8">
-        <v>0.12696471988061858</v>
+        <v>0.1273114104576272</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -967,22 +1055,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.75351305989515094</v>
+        <v>0.75309371754602539</v>
       </c>
       <c r="J8">
-        <v>8.1207887185947791E-5</v>
+        <v>8.1429633898677482e-05</v>
       </c>
       <c r="K8">
-        <v>9.1278296012955833E-4</v>
+        <v>0.00054988092927156561</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>6.0808910970214331E-3</v>
+        <v>0.0060974956123949816</v>
       </c>
       <c r="N8">
-        <v>8.6886923762618726E-4</v>
+        <v>0.00087124177684512363</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -991,30 +1079,33 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.332742460308236E-5</v>
+        <v>1.2100490151603015e-05</v>
       </c>
       <c r="R8">
-        <v>2.6681163584672493E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00026754019319770759</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45</v>
       </c>
       <c r="B9">
-        <v>2.1730777368541822E-2</v>
+        <v>0.021855235867875081</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.9775700234771479E-2</v>
+        <v>0.029859816398045132</v>
       </c>
       <c r="E9">
-        <v>8.6100342900754315E-3</v>
+        <v>0.0086314585630700592</v>
       </c>
       <c r="F9">
-        <v>0.16151466931957065</v>
+        <v>0.16191656485814232</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1023,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.773840729790777</v>
+        <v>0.77322317673511709</v>
       </c>
       <c r="J9">
-        <v>5.6225724516888431E-6</v>
+        <v>5.6365630495283559e-06</v>
       </c>
       <c r="K9">
-        <v>3.8937102597632847E-5</v>
+        <v>2.3450915590618097e-05</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.4930317882126902E-4</v>
+        <v>0.0003501723468650684</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1050,27 +1141,30 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1.0513634682183687E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00010539795667379343</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
       <c r="B10">
-        <v>1.315828095408597E-2</v>
+        <v>0.013233931551133886</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.6377860457377297E-2</v>
+        <v>0.01642989301566862</v>
       </c>
       <c r="E10">
-        <v>8.7684504772820668E-3</v>
+        <v>0.0087904610893457785</v>
       </c>
       <c r="F10">
-        <v>0.18275741027607564</v>
+        <v>0.18321616892103423</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1079,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7745488754110702</v>
+        <v>0.77394767519533536</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.8362471229638906E-5</v>
+        <v>1.1059533126657201e-05</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.0214073193780772E-5</v>
+        <v>2.0264814670219283e-05</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1106,6 +1200,9 @@
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>0</v>
       </c>
     </row>
@@ -1116,105 +1213,110 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E25D0A2-C23C-4036-8453-80121D8EEF5A}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="17" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="18.140625" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="16.28515625" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="17" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="19.42578125" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="17.28515625" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="15.7109375" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="19.28515625" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="16.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.6266193630667583E-3</v>
+        <v>0.0026543358475088238</v>
       </c>
       <c r="C2">
-        <v>2.1672178900110375E-3</v>
+        <v>0.0021825714012815023</v>
       </c>
       <c r="D2">
-        <v>3.3824572086532077E-2</v>
+        <v>0.034029161660397517</v>
       </c>
       <c r="E2">
-        <v>6.6923849323026095E-4</v>
+        <v>0.00067342107338028948</v>
       </c>
       <c r="F2">
-        <v>7.4280214850025745E-3</v>
+        <v>0.0074722532660826055</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1223,54 +1325,57 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.6322573535070126E-2</v>
+        <v>0.046221919560526979</v>
       </c>
       <c r="J2">
-        <v>6.987942925734722E-2</v>
+        <v>0.070294542475763069</v>
       </c>
       <c r="K2">
-        <v>7.7332619957453134E-4</v>
+        <v>0.00041586986504934024</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.7869151164321648E-3</v>
+        <v>0.0038131774658979635</v>
       </c>
       <c r="N2">
-        <v>3.4057587376716621E-3</v>
+        <v>0.0034264389870545665</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.0599816278823837E-4</v>
+        <v>0.00010171813068072747</v>
       </c>
       <c r="Q2">
-        <v>3.5872330925911651E-5</v>
+        <v>3.0848266654267406e-05</v>
       </c>
       <c r="R2">
-        <v>1.0190164167024254E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.001025302989735518</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>5.7055855478190583E-3</v>
+        <v>0.0057433198531148706</v>
       </c>
       <c r="C3">
-        <v>7.5288976184398884E-3</v>
+        <v>0.0075790101521147745</v>
       </c>
       <c r="D3">
-        <v>5.1343038014147899E-2</v>
+        <v>0.051715466491718418</v>
       </c>
       <c r="E3">
-        <v>6.7512478297217964E-4</v>
+        <v>0.00067781515548469046</v>
       </c>
       <c r="F3">
-        <v>1.8150556176502235E-2</v>
+        <v>0.01829211446055614</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1279,54 +1384,57 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.0150779184922882E-2</v>
+        <v>0.049807031952802686</v>
       </c>
       <c r="J3">
-        <v>2.2962732202062401E-2</v>
+        <v>0.023136836707270913</v>
       </c>
       <c r="K3">
-        <v>4.4387627801717169E-3</v>
+        <v>0.0026690998028280183</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.2365153713955945E-2</v>
+        <v>0.012449466743602327</v>
       </c>
       <c r="N3">
-        <v>4.6906711199488629E-3</v>
+        <v>0.0047245213313808453</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>5.4853820526955779E-5</v>
+        <v>2.9942501491956745e-05</v>
       </c>
       <c r="Q3">
-        <v>1.1890309927481706E-4</v>
+        <v>0.00010806812201665861</v>
       </c>
       <c r="R3">
-        <v>1.9789773874642458E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.001993295213803347</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.6773902397962068E-3</v>
+        <v>0.0037036619633095853</v>
       </c>
       <c r="C4">
-        <v>2.5161065915431792E-3</v>
+        <v>0.0025292947384766467</v>
       </c>
       <c r="D4">
-        <v>5.406749018361566E-2</v>
+        <v>0.054484185588778877</v>
       </c>
       <c r="E4">
-        <v>5.9716560115085097E-4</v>
+        <v>0.00060081479813777535</v>
       </c>
       <c r="F4">
-        <v>1.7828360570605042E-3</v>
+        <v>0.0017911532516993319</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1335,54 +1443,57 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.618940880327752E-2</v>
+        <v>0.035748011334363936</v>
       </c>
       <c r="J4">
-        <v>5.0620291944718015E-3</v>
+        <v>0.0050999436210791699</v>
       </c>
       <c r="K4">
-        <v>1.6751729630561738E-3</v>
+        <v>0.0009699662251183021</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.5583663309037036E-3</v>
+        <v>0.0035730811052097394</v>
       </c>
       <c r="N4">
-        <v>1.7080450018450519E-3</v>
+        <v>0.0017192945020759827</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>6.5902821011222854E-5</v>
+        <v>5.207976891492285e-05</v>
       </c>
       <c r="Q4">
-        <v>3.012937664850317E-5</v>
+        <v>2.6288189814160208e-05</v>
       </c>
       <c r="R4">
-        <v>5.2814925313633145E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00053113412673892421</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.7112364473577876E-3</v>
+        <v>0.0027459687494031807</v>
       </c>
       <c r="C5">
-        <v>5.9245851097677292E-3</v>
+        <v>0.0059616427100140481</v>
       </c>
       <c r="D5">
-        <v>3.1057346856867254E-2</v>
+        <v>0.03125482868598841</v>
       </c>
       <c r="E5">
-        <v>7.0450613975044118E-4</v>
+        <v>0.00070950902271145835</v>
       </c>
       <c r="F5">
-        <v>1.3839846225593923E-2</v>
+        <v>0.013925675752604793</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1391,54 +1502,57 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.6049782052465765E-2</v>
+        <v>0.045825632687067547</v>
       </c>
       <c r="J5">
-        <v>1.4908636566009629E-3</v>
+        <v>0.001500240008304827</v>
       </c>
       <c r="K5">
-        <v>1.8247107196026507E-3</v>
+        <v>0.001084752998502779</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7.4436747135353748E-3</v>
+        <v>0.0074915518647596969</v>
       </c>
       <c r="N5">
-        <v>7.0073542577894375E-4</v>
+        <v>0.00070630007330330579</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>5.1173530448865387E-5</v>
+        <v>3.9186442438812536e-05</v>
       </c>
       <c r="Q5">
-        <v>3.6355222491489642E-5</v>
+        <v>3.2745217512021258e-05</v>
       </c>
       <c r="R5">
-        <v>8.1320519115205307E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00081838443050472021</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>7.7476534833186049E-3</v>
+        <v>0.0078106780610437436</v>
       </c>
       <c r="C6">
-        <v>1.5416524965127635E-2</v>
+        <v>0.015496978502847109</v>
       </c>
       <c r="D6">
-        <v>2.8313838985886217E-2</v>
+        <v>0.02845783458750873</v>
       </c>
       <c r="E6">
-        <v>7.0219285578005438E-4</v>
+        <v>0.00070528253206345829</v>
       </c>
       <c r="F6">
-        <v>4.1376483343277086E-2</v>
+        <v>0.041592235927113745</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1447,54 +1561,57 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.4760494554843669E-2</v>
+        <v>0.04426329842552032</v>
       </c>
       <c r="J6">
-        <v>4.3329053048977223E-3</v>
+        <v>0.0043555463044287566</v>
       </c>
       <c r="K6">
-        <v>6.0026829054579444E-3</v>
+        <v>0.0036215242504266756</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.367082852072009E-2</v>
+        <v>0.023794253977755555</v>
       </c>
       <c r="N6">
-        <v>3.4384257609070164E-3</v>
+        <v>0.0034563311596643095</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>5.2197355625829127E-5</v>
+        <v>5.2198439831919181e-05</v>
       </c>
       <c r="Q6">
-        <v>3.0562589856713837E-5</v>
+        <v>2.7552353007428024e-05</v>
       </c>
       <c r="R6">
-        <v>2.4205394934442175E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.0024331726864625439</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
       <c r="B7">
-        <v>1.1799693942510226E-3</v>
+        <v>0.0011458084686746595</v>
       </c>
       <c r="C7">
-        <v>3.986895141974132E-4</v>
+        <v>0.00039601421205803799</v>
       </c>
       <c r="D7">
-        <v>1.7199794792909086E-2</v>
+        <v>0.017249788372753101</v>
       </c>
       <c r="E7">
-        <v>5.9216814337112434E-4</v>
+        <v>0.00059142703057109194</v>
       </c>
       <c r="F7">
-        <v>2.4477695663818839E-3</v>
+        <v>0.0023573256572167541</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1503,22 +1620,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.8231784058131924E-2</v>
+        <v>0.015925324262948667</v>
       </c>
       <c r="J7">
-        <v>6.1665550613785415E-5</v>
+        <v>6.169647342206342e-05</v>
       </c>
       <c r="K7">
-        <v>1.8193794934851098E-4</v>
+        <v>8.7701351449940134e-05</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4.6715487069406433E-4</v>
+        <v>0.0004525877795809012</v>
       </c>
       <c r="N7">
-        <v>5.5323291367082532E-5</v>
+        <v>5.2017602747787154e-05</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1527,30 +1644,33 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3.646859755837121E-6</v>
+        <v>2.6950867607348643e-06</v>
       </c>
       <c r="R7">
-        <v>6.5191065175053078E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6.490192056709771e-05</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
       <c r="B8">
-        <v>1.5914950694957896E-3</v>
+        <v>0.0015833161345055395</v>
       </c>
       <c r="C8">
-        <v>5.99279707907785E-4</v>
+        <v>0.00060070821921865401</v>
       </c>
       <c r="D8">
-        <v>1.9829253276285805E-2</v>
+        <v>0.019878701213324221</v>
       </c>
       <c r="E8">
-        <v>6.9949377489719234E-4</v>
+        <v>0.00069918951913449713</v>
       </c>
       <c r="F8">
-        <v>9.9227846194020943E-3</v>
+        <v>0.0099147990899908535</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1559,22 +1679,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.7603404511584893E-2</v>
+        <v>0.036497189958612432</v>
       </c>
       <c r="J8">
-        <v>6.095641957567591E-5</v>
+        <v>6.1120535374218642e-05</v>
       </c>
       <c r="K8">
-        <v>2.8607045751298906E-4</v>
+        <v>0.00017138323603687789</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.5419912670630008E-3</v>
+        <v>0.001545684831682875</v>
       </c>
       <c r="N8">
-        <v>2.8454784765668693E-4</v>
+        <v>0.00028526763943164491</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1583,30 +1703,33 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.6671960725986185E-5</v>
+        <v>2.421236546594557e-05</v>
       </c>
       <c r="R8">
-        <v>9.5214341229518979E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9.5458215948000631e-05</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>45</v>
       </c>
       <c r="B9">
-        <v>2.1981550126556038E-3</v>
+        <v>0.0022039674276937799</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.7908298441017902E-3</v>
+        <v>0.0088087512793462181</v>
       </c>
       <c r="E9">
-        <v>6.3598178520216737E-4</v>
+        <v>0.00063405802958038497</v>
       </c>
       <c r="F9">
-        <v>8.0419733877810547E-3</v>
+        <v>0.0079640825268890627</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1615,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.5348595333920886E-2</v>
+        <v>0.023381602751062668</v>
       </c>
       <c r="J9">
-        <v>4.0675972841788058E-6</v>
+        <v>4.0774855047791249e-06</v>
       </c>
       <c r="K9">
-        <v>8.6642898628642752E-6</v>
+        <v>5.1607024391140602e-06</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.9869783803481599E-4</v>
+        <v>0.00070043116332484502</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1642,27 +1765,30 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>2.1042676296313123E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.00021094879027648523</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
       <c r="B10">
-        <v>1.2304227947352738E-3</v>
+        <v>0.0012331643741185386</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.5582212887324983E-3</v>
+        <v>0.0045667887314383409</v>
       </c>
       <c r="E10">
-        <v>7.1263271454298548E-4</v>
+        <v>0.00071126018429510372</v>
       </c>
       <c r="F10">
-        <v>8.6858388377742003E-3</v>
+        <v>0.0085944789649485698</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1671,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.4920378562480826E-2</v>
+        <v>0.022934022900261006</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.6750900487032914E-5</v>
+        <v>2.212892771422791e-05</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.0434331527054323E-5</v>
+        <v>4.0535534548806095e-05</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1698,6 +1824,9 @@
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>0</v>
       </c>
     </row>
